--- a/InputData/add-outputs/BGDP/BAU GDP.xlsx
+++ b/InputData/add-outputs/BGDP/BAU GDP.xlsx
@@ -1,32 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\add-outputs\BGDP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tdeet\Documents\analysis\thirdParty\EPS Decarbonization Model\eps-us-2.1.0\InputData\add-outputs\BGDP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4514980A-F301-4B52-B196-9BC0CEFCFEAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="11310"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="OECD Data" sheetId="3" r:id="rId2"/>
-    <sheet name="BGDP" sheetId="2" r:id="rId3"/>
+    <sheet name="Texas Data" sheetId="4" r:id="rId3"/>
+    <sheet name="BGDP" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="38">
   <si>
     <t>BGDP BAU Gross Domestic Product</t>
   </si>
@@ -105,12 +115,54 @@
   <si>
     <t>Unit: 2012 USD</t>
   </si>
+  <si>
+    <t>https://comptroller.texas.gov/transparency/reports/forecasts/fall2019/</t>
+  </si>
+  <si>
+    <t>Data only goes out to 2046</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Texas data from Real Gross State Prodcuct 1990-2046 (in 2012 dollars)</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Fraction of National</t>
+  </si>
+  <si>
+    <t>For this portion after 2046</t>
+  </si>
+  <si>
+    <t>assume that the Texas economy continues</t>
+  </si>
+  <si>
+    <t>to grow relative to the US economy</t>
+  </si>
+  <si>
+    <t>at the same trend/rate as seen between 2014--2046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Then, multiply that fraction by the US GDP to get </t>
+  </si>
+  <si>
+    <t>the Texas GDP for 2046-2060</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="171" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -142,16 +194,321 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -159,12 +516,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -182,10 +688,63 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="171" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="44">
+    <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="26" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="29" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="35" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="21" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="27" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="30" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="33" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="36" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1 2" xfId="38" xr:uid="{462CD7D8-A763-4B4F-90F9-A9119965CED4}"/>
+    <cellStyle name="60% - Accent2 2" xfId="39" xr:uid="{19022BCA-AF27-4004-8C2A-F5A22ED8F21E}"/>
+    <cellStyle name="60% - Accent3 2" xfId="40" xr:uid="{4301254C-A6DF-4DBE-92EC-39CA2F7034BC}"/>
+    <cellStyle name="60% - Accent4 2" xfId="41" xr:uid="{15CBC45F-E2D1-4715-A45E-F8F14B7E96DC}"/>
+    <cellStyle name="60% - Accent5 2" xfId="42" xr:uid="{59E70E60-AF58-4549-8C23-2F96167F13DA}"/>
+    <cellStyle name="60% - Accent6 2" xfId="43" xr:uid="{7050F09A-E66C-4173-8CA9-3A30D4274A09}"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="25" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="28" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="31" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="34" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="9" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="12" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="14" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Explanatory Text" xfId="17" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="8" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="4" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="5" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="6" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="7" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Input" xfId="10" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="13" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral 2" xfId="37" xr:uid="{10E9BAD9-8197-4B1D-B2AB-8BE90F2E72D2}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="16" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="11" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="3" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -462,10 +1021,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -544,7 +1105,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -552,10 +1113,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1677,13 +2240,1225 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F74CDA83-6548-4113-8954-C2997020F3D6}">
+  <dimension ref="A1:AM53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="12">
+        <v>2014</v>
+      </c>
+      <c r="D7" s="12">
+        <v>16208167.451801199</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1512351.4</v>
+      </c>
+      <c r="F7" s="15">
+        <f>E7/D7</f>
+        <v>9.3307982194614711E-2</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="17"/>
+      <c r="AE7" s="17"/>
+      <c r="AF7" s="17"/>
+      <c r="AG7" s="17"/>
+      <c r="AH7" s="17"/>
+      <c r="AI7" s="17"/>
+      <c r="AJ7" s="17"/>
+      <c r="AK7" s="17"/>
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="17"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="12">
+        <v>2015</v>
+      </c>
+      <c r="D8" s="10">
+        <v>16671978.001079099</v>
+      </c>
+      <c r="E8" s="9">
+        <v>1589956</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" ref="F8:F53" si="0">E8/D8</f>
+        <v>9.5366968448320266E-2</v>
+      </c>
+      <c r="G8" s="17"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="16"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="12">
+        <v>2016</v>
+      </c>
+      <c r="D9" s="12">
+        <v>16919603.417713501</v>
+      </c>
+      <c r="E9" s="9">
+        <v>1593149.375</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>9.4159971464348707E-2</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="12">
+        <v>2017</v>
+      </c>
+      <c r="D10" s="12">
+        <v>17304243.025623702</v>
+      </c>
+      <c r="E10" s="9">
+        <v>1624948.8</v>
+      </c>
+      <c r="F10" s="15">
+        <f t="shared" si="0"/>
+        <v>9.3904645097379613E-2</v>
+      </c>
+      <c r="G10" s="17"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="12">
+        <v>2018</v>
+      </c>
+      <c r="D11" s="12">
+        <v>17798638.6604435</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1676678.875</v>
+      </c>
+      <c r="F11" s="15">
+        <f t="shared" si="0"/>
+        <v>9.4202647010657448E-2</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="16"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="12">
+        <v>2019</v>
+      </c>
+      <c r="D12" s="12">
+        <v>18292645.569375802</v>
+      </c>
+      <c r="E12" s="9">
+        <v>1745665.02963219</v>
+      </c>
+      <c r="F12" s="15">
+        <f t="shared" si="0"/>
+        <v>9.5429883174178678E-2</v>
+      </c>
+      <c r="G12" s="17"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="16"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="12">
+        <v>2020</v>
+      </c>
+      <c r="D13" s="12">
+        <v>18587190</v>
+      </c>
+      <c r="E13" s="9">
+        <v>1789328.2504740399</v>
+      </c>
+      <c r="F13" s="15">
+        <f t="shared" si="0"/>
+        <v>9.6266743411674377E-2</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="16"/>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="12">
+        <v>2021</v>
+      </c>
+      <c r="D14" s="12">
+        <v>18849540</v>
+      </c>
+      <c r="E14" s="9">
+        <v>1832962.25271784</v>
+      </c>
+      <c r="F14" s="15">
+        <f t="shared" si="0"/>
+        <v>9.7241749810225611E-2</v>
+      </c>
+      <c r="G14" s="17"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="16"/>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="12">
+        <v>2022</v>
+      </c>
+      <c r="D15" s="12">
+        <v>19124900</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1876066.1663035201</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="0"/>
+        <v>9.8095475861495751E-2</v>
+      </c>
+      <c r="G15" s="17"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="16"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2023</v>
+      </c>
+      <c r="D16" s="12">
+        <v>19422190</v>
+      </c>
+      <c r="E16" s="9">
+        <v>1921519.8159950499</v>
+      </c>
+      <c r="F16" s="15">
+        <f t="shared" si="0"/>
+        <v>9.8934250771671464E-2</v>
+      </c>
+      <c r="G16" s="17"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="16"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="12">
+        <v>2024</v>
+      </c>
+      <c r="D17" s="12">
+        <v>19740540</v>
+      </c>
+      <c r="E17" s="9">
+        <v>1974046.76978378</v>
+      </c>
+      <c r="F17" s="15">
+        <f t="shared" si="0"/>
+        <v>9.9999633737667765E-2</v>
+      </c>
+      <c r="G17" s="17"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="16"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="12">
+        <v>2025</v>
+      </c>
+      <c r="D18" s="12">
+        <v>20075600</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2029253.76635545</v>
+      </c>
+      <c r="F18" s="15">
+        <f t="shared" si="0"/>
+        <v>0.10108060363602832</v>
+      </c>
+      <c r="G18" s="17"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="16"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="12">
+        <v>2026</v>
+      </c>
+      <c r="D19" s="12">
+        <v>20424180</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2084866.7300347702</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="0"/>
+        <v>0.1020783566358488</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="16"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="12">
+        <v>2027</v>
+      </c>
+      <c r="D20" s="12">
+        <v>20784020</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2143185.7342129</v>
+      </c>
+      <c r="F20" s="15">
+        <f t="shared" si="0"/>
+        <v>0.10311699729950703</v>
+      </c>
+      <c r="G20" s="17"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="16"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="12">
+        <v>2028</v>
+      </c>
+      <c r="D21" s="12">
+        <v>21153450</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2207791.94100154</v>
+      </c>
+      <c r="F21" s="15">
+        <f t="shared" si="0"/>
+        <v>0.10437030087298006</v>
+      </c>
+      <c r="G21" s="17"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="16"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="12">
+        <v>2029</v>
+      </c>
+      <c r="D22" s="12">
+        <v>21531180</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2273950.60298396</v>
+      </c>
+      <c r="F22" s="15">
+        <f t="shared" si="0"/>
+        <v>0.10561198238944451</v>
+      </c>
+      <c r="G22" s="17"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="16"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="12">
+        <v>2030</v>
+      </c>
+      <c r="D23" s="12">
+        <v>21916430</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2339020.4344918798</v>
+      </c>
+      <c r="F23" s="15">
+        <f t="shared" si="0"/>
+        <v>0.10672451829480804</v>
+      </c>
+      <c r="G23" s="17"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="16"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="12">
+        <v>2031</v>
+      </c>
+      <c r="D24" s="12">
+        <v>22309050</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2403498.3063821499</v>
+      </c>
+      <c r="F24" s="15">
+        <f t="shared" si="0"/>
+        <v>0.10773647046298027</v>
+      </c>
+      <c r="G24" s="17"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="16"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="12">
+        <v>2032</v>
+      </c>
+      <c r="D25" s="12">
+        <v>22709530</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2466379.1766587999</v>
+      </c>
+      <c r="F25" s="15">
+        <f t="shared" si="0"/>
+        <v>0.10860546989122187</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="16"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="12">
+        <v>2033</v>
+      </c>
+      <c r="D26" s="12">
+        <v>23118740</v>
+      </c>
+      <c r="E26" s="9">
+        <v>2526398.1590423002</v>
+      </c>
+      <c r="F26" s="15">
+        <f t="shared" si="0"/>
+        <v>0.10927923230428216</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="16"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="12">
+        <v>2034</v>
+      </c>
+      <c r="D27" s="12">
+        <v>23537610</v>
+      </c>
+      <c r="E27" s="9">
+        <v>2588617.2529889001</v>
+      </c>
+      <c r="F27" s="15">
+        <f t="shared" si="0"/>
+        <v>0.10997791419727407</v>
+      </c>
+      <c r="G27" s="17"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="16"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="12">
+        <v>2035</v>
+      </c>
+      <c r="D28" s="12">
+        <v>23967030</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2651251.5947885602</v>
+      </c>
+      <c r="F28" s="15">
+        <f t="shared" si="0"/>
+        <v>0.11062078174845028</v>
+      </c>
+      <c r="G28" s="17"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="16"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="12">
+        <v>2036</v>
+      </c>
+      <c r="D29" s="12">
+        <v>24407860</v>
+      </c>
+      <c r="E29" s="9">
+        <v>2714562.1573475301</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="0"/>
+        <v>0.11121672106229429</v>
+      </c>
+      <c r="G29" s="17"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="16"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="12">
+        <v>2037</v>
+      </c>
+      <c r="D30" s="12">
+        <v>24861010</v>
+      </c>
+      <c r="E30" s="9">
+        <v>2781079.63698861</v>
+      </c>
+      <c r="F30" s="15">
+        <f t="shared" si="0"/>
+        <v>0.11186511074926601</v>
+      </c>
+      <c r="G30" s="17"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="16"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="12">
+        <v>2038</v>
+      </c>
+      <c r="D31" s="12">
+        <v>25327180</v>
+      </c>
+      <c r="E31" s="9">
+        <v>2850898.1911868099</v>
+      </c>
+      <c r="F31" s="15">
+        <f t="shared" si="0"/>
+        <v>0.11256279582593917</v>
+      </c>
+      <c r="G31" s="17"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="16"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="12">
+        <v>2039</v>
+      </c>
+      <c r="D32" s="12">
+        <v>25806800</v>
+      </c>
+      <c r="E32" s="9">
+        <v>2924789.3523830599</v>
+      </c>
+      <c r="F32" s="15">
+        <f t="shared" si="0"/>
+        <v>0.11333405739506874</v>
+      </c>
+      <c r="G32" s="17"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="16"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="12">
+        <v>2040</v>
+      </c>
+      <c r="D33" s="12">
+        <v>26300140</v>
+      </c>
+      <c r="E33" s="9">
+        <v>3002005.99334318</v>
+      </c>
+      <c r="F33" s="15">
+        <f t="shared" si="0"/>
+        <v>0.11414410696457053</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" s="12">
+        <v>2041</v>
+      </c>
+      <c r="D34" s="12">
+        <v>26807420</v>
+      </c>
+      <c r="E34" s="9">
+        <v>3080120.5924312901</v>
+      </c>
+      <c r="F34" s="15">
+        <f t="shared" si="0"/>
+        <v>0.11489806152293992</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="12">
+        <v>2042</v>
+      </c>
+      <c r="D35" s="12">
+        <v>27328940</v>
+      </c>
+      <c r="E35" s="9">
+        <v>3160593.0942875398</v>
+      </c>
+      <c r="F35" s="15">
+        <f t="shared" si="0"/>
+        <v>0.11565004329796691</v>
+      </c>
+      <c r="G35" s="17"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="16"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="12">
+        <v>2043</v>
+      </c>
+      <c r="D36" s="12">
+        <v>27864750</v>
+      </c>
+      <c r="E36" s="9">
+        <v>3243242.606902</v>
+      </c>
+      <c r="F36" s="15">
+        <f t="shared" si="0"/>
+        <v>0.11639230952734189</v>
+      </c>
+      <c r="G36" s="17"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="16"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="12">
+        <v>2044</v>
+      </c>
+      <c r="D37" s="12">
+        <v>28414590</v>
+      </c>
+      <c r="E37" s="9">
+        <v>3330352.2978743501</v>
+      </c>
+      <c r="F37" s="15">
+        <f t="shared" si="0"/>
+        <v>0.11720571360960513</v>
+      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="16"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="12">
+        <v>2045</v>
+      </c>
+      <c r="D38" s="12">
+        <v>28978050</v>
+      </c>
+      <c r="E38" s="9">
+        <v>3421150.3476628601</v>
+      </c>
+      <c r="F38" s="15">
+        <f t="shared" si="0"/>
+        <v>0.11806006089653583</v>
+      </c>
+      <c r="G38" s="17"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="12">
+        <v>2046</v>
+      </c>
+      <c r="D39" s="12">
+        <v>29554850</v>
+      </c>
+      <c r="E39" s="9">
+        <v>3515123.8369329399</v>
+      </c>
+      <c r="F39" s="15">
+        <f t="shared" si="0"/>
+        <v>0.11893560065210752</v>
+      </c>
+      <c r="G39" s="17"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="12">
+        <v>2047</v>
+      </c>
+      <c r="D40" s="12">
+        <v>30144870</v>
+      </c>
+      <c r="E40" s="11">
+        <f>F40*D40</f>
+        <v>3623862.8135750499</v>
+      </c>
+      <c r="F40" s="13">
+        <f>FORECAST(C40,$F$7:$F$39,$C$7:$C$39)</f>
+        <v>0.12021490932205214</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" s="16"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="12">
+        <v>2048</v>
+      </c>
+      <c r="D41" s="12">
+        <v>30747840</v>
+      </c>
+      <c r="E41" s="11">
+        <f t="shared" ref="E41:E53" si="1">F41*D41</f>
+        <v>3722477.0538727771</v>
+      </c>
+      <c r="F41" s="13">
+        <f t="shared" ref="F41:F53" si="2">FORECAST(C41,$F$7:$F$39,$C$7:$C$39)</f>
+        <v>0.12106466840834273</v>
+      </c>
+      <c r="H41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="12">
+        <v>2049</v>
+      </c>
+      <c r="D42" s="12">
+        <v>31363330</v>
+      </c>
+      <c r="E42" s="11">
+        <f t="shared" si="1"/>
+        <v>3823642.4212752581</v>
+      </c>
+      <c r="F42" s="13">
+        <f t="shared" si="2"/>
+        <v>0.12191442749463333</v>
+      </c>
+      <c r="H42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="12">
+        <v>2050</v>
+      </c>
+      <c r="D43" s="12">
+        <v>31990910</v>
+      </c>
+      <c r="E43" s="11">
+        <f t="shared" si="1"/>
+        <v>3927338.0441335449</v>
+      </c>
+      <c r="F43" s="13">
+        <f t="shared" si="2"/>
+        <v>0.12276418658092392</v>
+      </c>
+      <c r="H43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="12">
+        <v>2051</v>
+      </c>
+      <c r="D44" s="12">
+        <v>32630430</v>
+      </c>
+      <c r="E44" s="11">
+        <f t="shared" si="1"/>
+        <v>4033576.2011178462</v>
+      </c>
+      <c r="F44" s="13">
+        <f t="shared" si="2"/>
+        <v>0.12361394566721451</v>
+      </c>
+      <c r="H44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="12">
+        <v>2052</v>
+      </c>
+      <c r="D45" s="12">
+        <v>33282110</v>
+      </c>
+      <c r="E45" s="11">
+        <f t="shared" si="1"/>
+        <v>4142414.7126136795</v>
+      </c>
+      <c r="F45" s="13">
+        <f t="shared" si="2"/>
+        <v>0.1244637047535051</v>
+      </c>
+      <c r="H45" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="12">
+        <v>2053</v>
+      </c>
+      <c r="D46" s="12">
+        <v>33946130</v>
+      </c>
+      <c r="E46" s="11">
+        <f t="shared" si="1"/>
+        <v>4253907.1342560034</v>
+      </c>
+      <c r="F46" s="13">
+        <f t="shared" si="2"/>
+        <v>0.12531346383979569</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="12">
+        <v>2054</v>
+      </c>
+      <c r="D47" s="12">
+        <v>34622620</v>
+      </c>
+      <c r="E47" s="11">
+        <f t="shared" si="1"/>
+        <v>4368101.3253451735</v>
+      </c>
+      <c r="F47" s="13">
+        <f t="shared" si="2"/>
+        <v>0.12616322292608628</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="12">
+        <v>2055</v>
+      </c>
+      <c r="D48" s="12">
+        <v>35311770</v>
+      </c>
+      <c r="E48" s="11">
+        <f t="shared" si="1"/>
+        <v>4485053.2078351891</v>
+      </c>
+      <c r="F48" s="13">
+        <f t="shared" si="2"/>
+        <v>0.12701298201237687</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="12">
+        <v>2056</v>
+      </c>
+      <c r="D49" s="12">
+        <v>36014100</v>
+      </c>
+      <c r="E49" s="11">
+        <f t="shared" si="1"/>
+        <v>4604861.5442015203</v>
+      </c>
+      <c r="F49" s="13">
+        <f t="shared" si="2"/>
+        <v>0.12786274109866747</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="12">
+        <v>2057</v>
+      </c>
+      <c r="D50" s="12">
+        <v>36730540</v>
+      </c>
+      <c r="E50" s="11">
+        <f t="shared" si="1"/>
+        <v>4727679.6365436092</v>
+      </c>
+      <c r="F50" s="13">
+        <f t="shared" si="2"/>
+        <v>0.12871250018495806</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="12">
+        <v>2058</v>
+      </c>
+      <c r="D51" s="12">
+        <v>37462060</v>
+      </c>
+      <c r="E51" s="11">
+        <f t="shared" si="1"/>
+        <v>4853669.1305550728</v>
+      </c>
+      <c r="F51" s="13">
+        <f t="shared" si="2"/>
+        <v>0.12956225927124865</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="12">
+        <v>2059</v>
+      </c>
+      <c r="D52" s="12">
+        <v>38209630</v>
+      </c>
+      <c r="E52" s="11">
+        <f t="shared" si="1"/>
+        <v>4982994.9689947823</v>
+      </c>
+      <c r="F52" s="13">
+        <f t="shared" si="2"/>
+        <v>0.13041201835753924</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="12">
+        <v>2060</v>
+      </c>
+      <c r="D53" s="12">
+        <v>38974320</v>
+      </c>
+      <c r="E53" s="11">
+        <f t="shared" si="1"/>
+        <v>5115838.5178646147</v>
+      </c>
+      <c r="F53" s="13">
+        <f t="shared" si="2"/>
+        <v>0.13126177744383005</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4EB90A5B-A5EE-4912-8B9E-D681F766C998}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1704,8 +3479,8 @@
         <v>2014</v>
       </c>
       <c r="B2" s="7">
-        <f>'OECD Data'!G2*About!$A$15*About!$A$16</f>
-        <v>17065790429654.971</v>
+        <f>'Texas Data'!E7*About!$A$16</f>
+        <v>1512351400000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1713,8 +3488,8 @@
         <v>2015</v>
       </c>
       <c r="B3" s="7">
-        <f>'OECD Data'!G3*About!$A$15*About!$A$16</f>
-        <v>17554142592635.627</v>
+        <f>'Texas Data'!E8*About!$A$16</f>
+        <v>1589956000000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1722,8 +3497,8 @@
         <v>2016</v>
       </c>
       <c r="B4" s="7">
-        <f>'OECD Data'!G4*About!$A$15*About!$A$16</f>
-        <v>17814870616201.863</v>
+        <f>'Texas Data'!E9*About!$A$16</f>
+        <v>1593149375000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1731,8 +3506,8 @@
         <v>2017</v>
       </c>
       <c r="B5" s="7">
-        <f>'OECD Data'!G5*About!$A$15*About!$A$16</f>
-        <v>18219862664751.477</v>
+        <f>'Texas Data'!E10*About!$A$16</f>
+        <v>1624948800000</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1740,8 +3515,8 @@
         <v>2018</v>
       </c>
       <c r="B6" s="7">
-        <f>'OECD Data'!G6*About!$A$15*About!$A$16</f>
-        <v>18740418262308.145</v>
+        <f>'Texas Data'!E11*About!$A$16</f>
+        <v>1676678875000</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1749,8 +3524,8 @@
         <v>2019</v>
       </c>
       <c r="B7" s="7">
-        <f>'OECD Data'!G7*About!$A$15*About!$A$16</f>
-        <v>19260564565319.313</v>
+        <f>'Texas Data'!E12*About!$A$16</f>
+        <v>1745665029632.1899</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1758,8 +3533,8 @@
         <v>2020</v>
       </c>
       <c r="B8" s="7">
-        <f>'OECD Data'!G8*About!$A$15*About!$A$16</f>
-        <v>19570694229280.551</v>
+        <f>'Texas Data'!E13*About!$A$16</f>
+        <v>1789328250474.04</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1767,8 +3542,8 @@
         <v>2021</v>
       </c>
       <c r="B9" s="7">
-        <f>'OECD Data'!G9*About!$A$15*About!$A$16</f>
-        <v>19846925958285.945</v>
+        <f>'Texas Data'!E14*About!$A$16</f>
+        <v>1832962252717.8401</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1776,8 +3551,8 @@
         <v>2022</v>
       </c>
       <c r="B10" s="7">
-        <f>'OECD Data'!G10*About!$A$15*About!$A$16</f>
-        <v>20136856085592.691</v>
+        <f>'Texas Data'!E15*About!$A$16</f>
+        <v>1876066166303.52</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1785,8 +3560,8 @@
         <v>2023</v>
       </c>
       <c r="B11" s="7">
-        <f>'OECD Data'!G11*About!$A$15*About!$A$16</f>
-        <v>20449876595278.277</v>
+        <f>'Texas Data'!E16*About!$A$16</f>
+        <v>1921519815995.0498</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1794,8 +3569,8 @@
         <v>2024</v>
       </c>
       <c r="B12" s="7">
-        <f>'OECD Data'!G12*About!$A$15*About!$A$16</f>
-        <v>20785071453021.242</v>
+        <f>'Texas Data'!E17*About!$A$16</f>
+        <v>1974046769783.78</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1803,8 +3578,8 @@
         <v>2025</v>
       </c>
       <c r="B13" s="7">
-        <f>'OECD Data'!G13*About!$A$15*About!$A$16</f>
-        <v>21137860487214.293</v>
+        <f>'Texas Data'!E18*About!$A$16</f>
+        <v>2029253766355.45</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1812,8 +3587,8 @@
         <v>2026</v>
       </c>
       <c r="B14" s="7">
-        <f>'OECD Data'!G14*About!$A$15*About!$A$16</f>
-        <v>21504884905345.414</v>
+        <f>'Texas Data'!E19*About!$A$16</f>
+        <v>2084866730034.7703</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1821,8 +3596,8 @@
         <v>2027</v>
       </c>
       <c r="B15" s="7">
-        <f>'OECD Data'!G15*About!$A$15*About!$A$16</f>
-        <v>21883765124004.84</v>
+        <f>'Texas Data'!E20*About!$A$16</f>
+        <v>2143185734212.9001</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1830,8 +3605,8 @@
         <v>2028</v>
       </c>
       <c r="B16" s="7">
-        <f>'OECD Data'!G16*About!$A$15*About!$A$16</f>
-        <v>22272742778460.578</v>
+        <f>'Texas Data'!E21*About!$A$16</f>
+        <v>2207791941001.54</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1839,8 +3614,8 @@
         <v>2029</v>
       </c>
       <c r="B17" s="7">
-        <f>'OECD Data'!G17*About!$A$15*About!$A$16</f>
-        <v>22670459610925.633</v>
+        <f>'Texas Data'!E22*About!$A$16</f>
+        <v>2273950602983.96</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1848,8 +3623,8 @@
         <v>2030</v>
       </c>
       <c r="B18" s="7">
-        <f>'OECD Data'!G18*About!$A$15*About!$A$16</f>
-        <v>23076094349249.734</v>
+        <f>'Texas Data'!E23*About!$A$16</f>
+        <v>2339020434491.8799</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1857,8 +3632,8 @@
         <v>2031</v>
       </c>
       <c r="B19" s="7">
-        <f>'OECD Data'!G19*About!$A$15*About!$A$16</f>
-        <v>23489489056480.902</v>
+        <f>'Texas Data'!E24*About!$A$16</f>
+        <v>2403498306382.1499</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1866,8 +3641,8 @@
         <v>2032</v>
       </c>
       <c r="B20" s="7">
-        <f>'OECD Data'!G20*About!$A$15*About!$A$16</f>
-        <v>23911159659995.598</v>
+        <f>'Texas Data'!E25*About!$A$16</f>
+        <v>2466379176658.7998</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1875,8 +3650,8 @@
         <v>2033</v>
       </c>
       <c r="B21" s="7">
-        <f>'OECD Data'!G21*About!$A$15*About!$A$16</f>
-        <v>24342022194115.273</v>
+        <f>'Texas Data'!E26*About!$A$16</f>
+        <v>2526398159042.3003</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1884,8 +3659,8 @@
         <v>2034</v>
       </c>
       <c r="B22" s="7">
-        <f>'OECD Data'!G22*About!$A$15*About!$A$16</f>
-        <v>24783055867942.18</v>
+        <f>'Texas Data'!E27*About!$A$16</f>
+        <v>2588617252988.8999</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1893,8 +3668,8 @@
         <v>2035</v>
       </c>
       <c r="B23" s="7">
-        <f>'OECD Data'!G23*About!$A$15*About!$A$16</f>
-        <v>25235197774058.039</v>
+        <f>'Texas Data'!E28*About!$A$16</f>
+        <v>2651251594788.5601</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1902,8 +3677,8 @@
         <v>2036</v>
       </c>
       <c r="B24" s="7">
-        <f>'OECD Data'!G24*About!$A$15*About!$A$16</f>
-        <v>25699353417654.18</v>
+        <f>'Texas Data'!E29*About!$A$16</f>
+        <v>2714562157347.5303</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1911,8 +3686,8 @@
         <v>2037</v>
       </c>
       <c r="B25" s="7">
-        <f>'OECD Data'!G25*About!$A$15*About!$A$16</f>
-        <v>26176480949572.586</v>
+        <f>'Texas Data'!E30*About!$A$16</f>
+        <v>2781079636988.6099</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1920,8 +3695,8 @@
         <v>2038</v>
       </c>
       <c r="B26" s="7">
-        <f>'OECD Data'!G26*About!$A$15*About!$A$16</f>
-        <v>26667317408922.48</v>
+        <f>'Texas Data'!E31*About!$A$16</f>
+        <v>2850898191186.8101</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1929,8 +3704,8 @@
         <v>2039</v>
       </c>
       <c r="B27" s="7">
-        <f>'OECD Data'!G27*About!$A$15*About!$A$16</f>
-        <v>27172315548299.516</v>
+        <f>'Texas Data'!E32*About!$A$16</f>
+        <v>2924789352383.0601</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1938,8 +3713,8 @@
         <v>2040</v>
       </c>
       <c r="B28" s="7">
-        <f>'OECD Data'!G28*About!$A$15*About!$A$16</f>
-        <v>27691759654217.266</v>
+        <f>'Texas Data'!E33*About!$A$16</f>
+        <v>3002005993343.1802</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1947,8 +3722,8 @@
         <v>2041</v>
       </c>
       <c r="B29" s="7">
-        <f>'OECD Data'!G29*About!$A$15*About!$A$16</f>
-        <v>28225881367538.613</v>
+        <f>'Texas Data'!E34*About!$A$16</f>
+        <v>3080120592431.29</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -1956,8 +3731,8 @@
         <v>2042</v>
       </c>
       <c r="B30" s="7">
-        <f>'OECD Data'!G30*About!$A$15*About!$A$16</f>
-        <v>28774996562167.52</v>
+        <f>'Texas Data'!E35*About!$A$16</f>
+        <v>3160593094287.54</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1965,8 +3740,8 @@
         <v>2043</v>
       </c>
       <c r="B31" s="7">
-        <f>'OECD Data'!G31*About!$A$15*About!$A$16</f>
-        <v>29339157883754.633</v>
+        <f>'Texas Data'!E36*About!$A$16</f>
+        <v>3243242606902</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1974,8 +3749,8 @@
         <v>2044</v>
       </c>
       <c r="B32" s="7">
-        <f>'OECD Data'!G32*About!$A$15*About!$A$16</f>
-        <v>29918091574916.535</v>
+        <f>'Texas Data'!E37*About!$A$16</f>
+        <v>3330352297874.3501</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1983,8 +3758,8 @@
         <v>2045</v>
       </c>
       <c r="B33" s="7">
-        <f>'OECD Data'!G33*About!$A$15*About!$A$16</f>
-        <v>30511365941317.828</v>
+        <f>'Texas Data'!E38*About!$A$16</f>
+        <v>3421150347662.8599</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1992,8 +3767,8 @@
         <v>2046</v>
       </c>
       <c r="B34" s="7">
-        <f>'OECD Data'!G34*About!$A$15*About!$A$16</f>
-        <v>31118686167314.816</v>
+        <f>'Texas Data'!E39*About!$A$16</f>
+        <v>3515123836932.9399</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2001,8 +3776,8 @@
         <v>2047</v>
       </c>
       <c r="B35" s="7">
-        <f>'OECD Data'!G35*About!$A$15*About!$A$16</f>
-        <v>31739925903345.926</v>
+        <f>'Texas Data'!E40*About!$A$16</f>
+        <v>3623862813575.0498</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2010,8 +3785,8 @@
         <v>2048</v>
       </c>
       <c r="B36" s="7">
-        <f>'OECD Data'!G36*About!$A$15*About!$A$16</f>
-        <v>32374800862897.605</v>
+        <f>'Texas Data'!E41*About!$A$16</f>
+        <v>3722477053872.7773</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2019,8 +3794,8 @@
         <v>2049</v>
       </c>
       <c r="B37" s="7">
-        <f>'OECD Data'!G37*About!$A$15*About!$A$16</f>
-        <v>33022858293374.176</v>
+        <f>'Texas Data'!E42*About!$A$16</f>
+        <v>3823642421275.2583</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2028,8 +3803,8 @@
         <v>2050</v>
       </c>
       <c r="B38" s="7">
-        <f>'OECD Data'!G38*About!$A$15*About!$A$16</f>
-        <v>33683645442179.992</v>
+        <f>'Texas Data'!E43*About!$A$16</f>
+        <v>3927338044133.5449</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2037,8 +3812,8 @@
         <v>2051</v>
       </c>
       <c r="B39" s="7">
-        <f>'OECD Data'!G39*About!$A$15*About!$A$16</f>
-        <v>34357004372363.063</v>
+        <f>'Texas Data'!E44*About!$A$16</f>
+        <v>4033576201117.8462</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2046,8 +3821,8 @@
         <v>2052</v>
       </c>
       <c r="B40" s="7">
-        <f>'OECD Data'!G40*About!$A$15*About!$A$16</f>
-        <v>35043166724786.297</v>
+        <f>'Texas Data'!E45*About!$A$16</f>
+        <v>4142414712613.6797</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2055,8 +3830,8 @@
         <v>2053</v>
       </c>
       <c r="B41" s="7">
-        <f>'OECD Data'!G41*About!$A$15*About!$A$16</f>
-        <v>35742322023792.047</v>
+        <f>'Texas Data'!E46*About!$A$16</f>
+        <v>4253907134256.0034</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -2064,8 +3839,8 @@
         <v>2054</v>
       </c>
       <c r="B42" s="7">
-        <f>'OECD Data'!G42*About!$A$15*About!$A$16</f>
-        <v>36454607148072.055</v>
+        <f>'Texas Data'!E47*About!$A$16</f>
+        <v>4368101325345.1733</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -2073,8 +3848,8 @@
         <v>2055</v>
       </c>
       <c r="B43" s="7">
-        <f>'OECD Data'!G43*About!$A$15*About!$A$16</f>
-        <v>37180222151098.805</v>
+        <f>'Texas Data'!E48*About!$A$16</f>
+        <v>4485053207835.1895</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -2082,8 +3857,8 @@
         <v>2056</v>
       </c>
       <c r="B44" s="7">
-        <f>'OECD Data'!G44*About!$A$15*About!$A$16</f>
-        <v>37919714547639.141</v>
+        <f>'Texas Data'!E49*About!$A$16</f>
+        <v>4604861544201.5205</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -2091,8 +3866,8 @@
         <v>2057</v>
       </c>
       <c r="B45" s="7">
-        <f>'OECD Data'!G45*About!$A$15*About!$A$16</f>
-        <v>38674063546795.313</v>
+        <f>'Texas Data'!E50*About!$A$16</f>
+        <v>4727679636543.6094</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2100,8 +3875,8 @@
         <v>2058</v>
       </c>
       <c r="B46" s="7">
-        <f>'OECD Data'!G46*About!$A$15*About!$A$16</f>
-        <v>39444290474190.117</v>
+        <f>'Texas Data'!E51*About!$A$16</f>
+        <v>4853669130555.0732</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2109,8 +3884,8 @@
         <v>2059</v>
       </c>
       <c r="B47" s="7">
-        <f>'OECD Data'!G47*About!$A$15*About!$A$16</f>
-        <v>40231416655446.305</v>
+        <f>'Texas Data'!E52*About!$A$16</f>
+        <v>4982994968994.7822</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2118,8 +3893,8 @@
         <v>2060</v>
       </c>
       <c r="B48" s="7">
-        <f>'OECD Data'!G48*About!$A$15*About!$A$16</f>
-        <v>41036568707487.984</v>
+        <f>'Texas Data'!E53*About!$A$16</f>
+        <v>5115838517864.6143</v>
       </c>
     </row>
   </sheetData>
